--- a/MyIdeasoft Case Çalışması.xlsx
+++ b/MyIdeasoft Case Çalışması.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$C$1:$C$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -142,18 +145,6 @@
 3-Hesabım butonuna tıklanır. 
 4-Adres defteri butonuna tıklanılır ardından Yeni Adres Ekle butonuna tıklanır.
 5- Başarılı bir şekilde Adres ekleme Pop-up açılır. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
-2- Kullanıcı bilgileriyle Login olunur.
-3-Hesabım butonuna tıklanır. 
-4-Adres defteri butonuna tıklanılır ardından Yeni Adres Ekle butonuna tıklanır.
-5- Başarılı bir şekilde Adres ekleme Pop-up açılır. 
-6- Adres Tipi  "Teslimat" seçilir. 
-7-Zorunlu alanlar doldurulur. 
-8-Kaydet butonuna tıklanır.
-9-Adres defterinde kayıt gözükür.
 </t>
   </si>
   <si>
@@ -175,18 +166,6 @@
 4-Adres defteri butonuna tıklanılır ardından Yeni Adres Ekle butonuna tıklanır.
 5- Başarılı bir şekilde Adres ekleme Pop-up açılır. 
 6- Adres Tipi  "Fatura" seçilir. 
-7-Zorunlu alanlar doldurulur. 
-8-Kaydet butonuna tıklanır.
-9-Adres defterinde kayıt gözükür.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
-2- Kullanıcı bilgileriyle Login olunur.
-3-Hesabım butonuna tıklanır. 
-4-Adres defteri butonuna tıklanılır ardından Yeni Adres Ekle butonuna tıklanır.
-5- Başarılı bir şekilde Adres ekleme Pop-up açılır. 
-6- Adres Tipi  "Fatura" seçilir. 
 7-Zorunlu alanlardan birini boş bırakın. 
 8-Kaydet butonuna tıklanır.
 9-Veri girişi yapılmayan zorunlu alan uyarı verir. (Bu alan zorunludur vb.)
@@ -224,16 +203,6 @@
     <t>TC_011</t>
   </si>
   <si>
-    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
-2- Kullanıcı bilgileriyle Login olunur.
-3-Hesabım butonuna tıklanır. 
-4-Adres defteri butonuna tıklanır. 
-6- Adres defterindeki mevcut adresleri kontrol edin.
-7-Tüm 'Teslimat' tipi adresleri silin.
-8-Son 1 adet teslimat adresini silmeye çalışıldığında "En az bir adet 'Fatura' tipi adres bulunmalıdır." şeklinde uyarı verir.
-</t>
-  </si>
-  <si>
     <t>Fatura Adresinin Silinmesi Uyarısı(-)</t>
   </si>
   <si>
@@ -285,12 +254,261 @@
 başarıyla oluşturulduğuna dair bir onay mesajı gözükür, ana sayfaya yönlendirilir. 
 </t>
   </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>Adresin Güncellenmesi (+)</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>Adresin Güncellenmesi (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanır. 
+6- Adres defterindeki mevcut adreslerden birinin düzenle butonuna tıklanır.
+7-Güncellenmek istenen zorunlu input silinir.
+8-Kaydet butonuna tıklanır. 
+9-Zorunlu alan uyarı verir.
+</t>
+  </si>
+  <si>
+    <t>1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanır. 
+6- Adres defterindeki mevcut adreslerden birinin düzenle butonuna tıklanır.
+7-Güncellenmek istenen input değiştirilir.
+8-Kaydet butonuna tıklanır.
+9-Başarılı bir şekilde güncelleme yapar.</t>
+  </si>
+  <si>
+    <t>Fatura Adresinin Silinmesi (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanılır ardından Yeni Adres Ekle butonuna tıklanır.
+5- Başarılı bir şekilde Adres ekleme Pop-up açılır. 
+6- Adres Tipi  "Fatura" seçilir. 
+7-Zorunlu alanlar doldurulur. 
+8-Kaydet butonuna tıklanır.
+9- Adres defterine başarıyla eklenir ve adres listesinde görüntülenir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanılır ardından Yeni Adres Ekle butonuna tıklanır.
+5- Başarılı bir şekilde Adres ekleme Pop-up açılır. 
+6- Adres Tipi  "Teslimat" seçilir. 
+7-Zorunlu alanlar doldurulur. 
+8-Kaydet butonuna tıklanır.
+9-Adres defterine başarıyla eklenir ve adres listesinde görüntülenir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanır. 
+6- Adres defterindeki mevcut adresleri kontrol edin.
+7- 'Teslimat' tipi adreslerinden birini silin.
+8-Adres başarılı bir şekilde silinir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanır. 
+6- Adres defterindeki mevcut adresleri kontrol edin.
+7- 'Fatura' tipi adreslerinden birini silin.
+8-Adres başarılı bir şekilde silinir.
+</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Zorunlu Alan Kontrolü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanır. 
+6- Yeni adres ekleme ya da düzenleme butonuna tıklanır.
+7-Zorunlu alanları boş bırakarak "Kaydet" butonuna tıklanır.
+8-Zorunlu alan uyarı verir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistem, kullanıcıyı eksik alanlar
+hakkında bilgilendirir ve kayıt
+işlemi gerçekleştirilmez.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorunlu alanlar boş bırakıldığında,
+sistem 'Adres, Şehir ve T.C Kimlik No alanını giriniz'
+şeklinde bir hata mesajı gösterdi ve adres kaydedilmedi.
+</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>Adres Listesi Görüntüleme(+)</t>
+  </si>
+  <si>
+    <t>1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanılır.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kullanıcıya kayıtlı adreslerin listesi
+ düzgün bir biçimde gösterilir.
+</t>
+  </si>
+  <si>
+    <t>Karakter Sınırı Kontrolü</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-https://testcase.myideasoft.com/  URL'e girilir.
+2- Kullanıcı bilgileriyle Login olunur.
+3-Hesabım butonuna tıklanır. 
+4-Adres defteri butonuna tıklanır. 
+6- Yeni adres ekleme ya da düzenleme butonuna tıklanır.
+7-Karakter sınırını aşacak şekilde veri girin ve "Kaydet" butonuna tıklayın.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistem, kullanıcıyı karakter sınırı aşımı hakkında bilgilendirir ve kayıt işlemi gerçekleştirilmez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adres bilgileri için maksimum karakter sınırını aşan
+veri girildiğinde, sistem 'Bu alan için maksimum 60 karakter
+girebilirsiniz' şeklinde bir hata mesajı gösterdi ve adres kaydedilmedi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistem, veri girişi yapılmayan zorunlu alan için bir uyarı mesajı gösterir.
+Üyelik oluşturma işlemi gerçekleşmez.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorunlu alanlardan 'Cep Telefonu' alanı boş bırakıldığında,
+sistem 'Lütfen Cep Telefonu giriniz.' şeklinde bir uyarı mesajı gösterdi
+ve üyelik oluşturma işlemi gerçekleştirilmedi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayıtlı adreslerin listesi eksiksiz ve doğru bir
+ biçimde kullanıcıya gösterildi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Başarılı bir şekilde Adres ekleme Pop-up'ı açılır ve kullanıcı yeni bir adres eklemek için gerekli alanları görebilir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeni Adres Ekle' butonuna tıklandığında, adres ekleme
+için bir pop-up penceresi başarılı bir şekilde açıldı.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeni teslimat adresi adres defterine başarıyla eklenir ve kullanıcının adres listesinde görüntülenir.
+</t>
+  </si>
+  <si>
+    <t>Teslimat adresi başarıyla kaydedildi ve listede doğru şekilde göründü.</t>
+  </si>
+  <si>
+    <t>Zorunlu alanlardan biri boş bırakıldığında, Kaydet butonuna tıklandığında, veri girişi yapılmayan zorunlu alan için bir uyarı mesajı görüntülenir.</t>
+  </si>
+  <si>
+    <t>Zorunlu alanlardan biri boş bırakıldığında, Kaydet butonuna tıklandığında, veri girişi yapılmayan zorunlu alan için uygun bir uyarı mesajı görüntülendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeni fatura adresi adres defterine başarıyla eklenir ve kullanıcının adres listesinde görüntülenir.
+</t>
+  </si>
+  <si>
+    <t>Fatura adresi başarıyla kaydedildi ve listede doğru şekilde göründü.</t>
+  </si>
+  <si>
+    <t>TCKN adres defterinde kayıtlı olarak görünür.</t>
+  </si>
+  <si>
+    <t>TCKN adres defterinde kayıtlı bir şekilde görüntülendi.</t>
+  </si>
+  <si>
+    <t>"Geçerli bir T.C Kimlik No giriniz" şeklinde bir uyarı mesajı görüntülenir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Geçerli bir T.C Kimlik No giriniz" şeklinde uygun bir uyarı mesajı görüntülendi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son bir 'Teslimat' adresini silmeye çalışıldığında, "En az bir adet 'Teslimat' tipi adres bulunmalıdır." şeklinde bir uyarı mesajı görüntülenir.
+</t>
+  </si>
+  <si>
+    <t>Son bir 'Teslimat' adresini silmeye çalışıldığında, "En az bir adet 'Teslimat' tipi adres bulunmalıdır." şeklinde uygun bir uyarı mesajı görüntülendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son bir 'Fatura' adresini silmeye çalışıldığında, "En az bir adet 'Fatura' tipi adres bulunmalıdır." şeklinde bir uyarı mesajı görüntülenir.
+</t>
+  </si>
+  <si>
+    <t>Son bir 'Fatura' adresini silmeye çalışıldığında, "En az bir adet 'Fatura' tipi adres bulunmalıdır." şeklinde uygun bir uyarı mesajı görüntülendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seçilen 'Teslimat' tipi adres başarılı bir şekilde silinir.
+</t>
+  </si>
+  <si>
+    <t>Seçilen 'Teslimat' tipi adres başarılı bir şekilde silindi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seçilen 'Fatura' tipi adres başarılı bir şekilde silinir.
+</t>
+  </si>
+  <si>
+    <t>Seçilen 'Fatura' tipi adres başarılı bir şekilde silindi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adres başarılı bir şekilde güncellenir.
+</t>
+  </si>
+  <si>
+    <t>Adres başarılı bir şekilde güncellendi.</t>
+  </si>
+  <si>
+    <t>Zorunlu alanın eksik olduğuna dair bir uyarı mesajı görüntülenir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zorunlu alanın eksik olduğuna dair uygun bir uyarı mesajı görüntülendi.(örneğin, "Lütfen İlçe giriniz.")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,15 +519,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,16 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,8 +559,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,318 +854,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="76.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="1" max="2" width="25.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="76.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
